--- a/GUI-Profilrechner/Profilrechner/Profilrechner/Preisliste.xlsx
+++ b/GUI-Profilrechner/Profilrechner/Profilrechner/Preisliste.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73629cd549bae486/DateinAktuell/Uni/HSP/HSP-Labor-Gruppe-A4/GUI-Profilrechner/Profilrechner/Profilrechner/bin/Debug/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73629cd549bae486/DateinAktuell/Uni/HSP/HSP-Labor-Gruppe-A4/GUI-Profilrechner/Profilrechner/Profilrechner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{957D5156-1874-4E35-A97C-3B76843B461A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{95CCC151-96D8-4166-B9AF-DC5225B5D924}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{957D5156-1874-4E35-A97C-3B76843B461A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{52563D44-811A-4E06-82EE-3F3119949EEB}"/>
   <bookViews>
-    <workbookView xWindow="-22920" yWindow="744" windowWidth="23040" windowHeight="12204" xr2:uid="{E93D67E9-98D1-4534-B56F-DFB73E8DB917}"/>
+    <workbookView xWindow="3770" yWindow="880" windowWidth="19200" windowHeight="10050" xr2:uid="{E93D67E9-98D1-4534-B56F-DFB73E8DB917}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -419,16 +419,16 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="18.1796875" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -439,64 +439,64 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2">
-        <v>1000</v>
+        <v>700</v>
       </c>
       <c r="C2" s="1">
         <f>B2/1000000</f>
-        <v>1E-3</v>
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3">
-        <v>600</v>
+        <v>554.5</v>
       </c>
       <c r="C3" s="1">
         <f t="shared" ref="C3:C6" si="0">B3/1000000</f>
-        <v>5.9999999999999995E-4</v>
+        <v>5.5449999999999998E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>700</v>
+        <v>899</v>
       </c>
       <c r="C4" s="1">
         <f t="shared" si="0"/>
-        <v>6.9999999999999999E-4</v>
+        <v>8.9899999999999995E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>800</v>
+        <v>1152</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" si="0"/>
-        <v>8.0000000000000004E-4</v>
+        <v>1.152E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>900</v>
+        <v>3150</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>8.9999999999999998E-4</v>
+        <v>3.15E-3</v>
       </c>
     </row>
   </sheetData>
